--- a/04_Just-Dial_RegistrationForm.xlsx
+++ b/04_Just-Dial_RegistrationForm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AutomationTesting\Assignments\Manual Assignments\Manual Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CDE395-CE72-4DDC-AC6A-B81E29AE7447}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD29DB5F-0056-4644-82CA-2086D46AC579}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="7815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="105">
   <si>
     <t>Test Case</t>
   </si>
@@ -865,7 +865,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,77 +1047,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1427,574 +1427,574 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="195">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" ht="165">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="210">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:10" ht="180">
+      <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="165">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:10" ht="150">
+      <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="180">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:10" ht="150">
+      <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="180">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:10" ht="150">
+      <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="180">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:10" ht="150">
+      <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="210">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:10" ht="165">
+      <c r="A8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="210">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:10" ht="150">
+      <c r="A9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="195">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:10" ht="150">
+      <c r="A10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="195">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:10" ht="150">
+      <c r="A11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="195">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:10" ht="165">
+      <c r="A12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="225">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:10" ht="195">
+      <c r="A13" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="240">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:10" ht="195">
+      <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="225">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:10" ht="165">
+      <c r="A15" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="195">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:10" ht="150">
+      <c r="A16" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="225">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:10" ht="180">
+      <c r="A17" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="J17" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="J18" s="24"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="J19" s="24"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="J20" s="24"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="E21" s="18"/>
-      <c r="J21" s="24"/>
+      <c r="E21" s="16"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="C22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="C22" s="15"/>
+      <c r="E22" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1 C22:C1048576">
